--- a/Marvel-DC ML Score Tables.xlsx
+++ b/Marvel-DC ML Score Tables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkjel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkjel\myclass\Project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F4AD87-F94B-4492-A996-9F85D338A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A9C666-B1DE-465C-B5A0-3242999F3B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="720" windowWidth="14790" windowHeight="12420" xr2:uid="{2CF016C8-0918-4B11-A1BE-F0E10E4608C5}"/>
+    <workbookView xWindow="5100" yWindow="4410" windowWidth="19980" windowHeight="12420" activeTab="1" xr2:uid="{2CF016C8-0918-4B11-A1BE-F0E10E4608C5}"/>
   </bookViews>
   <sheets>
     <sheet name="GBN" sheetId="1" r:id="rId1"/>
@@ -281,34 +281,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
@@ -339,6 +311,34 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -368,13 +368,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5614C9E7-0391-40C8-AD20-CD7B6480B26F}" name="Table1" displayName="Table1" ref="A2:D12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5614C9E7-0391-40C8-AD20-CD7B6480B26F}" name="Table1" displayName="Table1" ref="A2:D12" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:D12" xr:uid="{5614C9E7-0391-40C8-AD20-CD7B6480B26F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{472F7BBE-3EAD-4345-ADC0-0B7428A3A6D5}" name="ML Models" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{A44ECB61-8C1D-4A79-A79C-2BA5819B95CF}" name="Score" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6B15EFDA-776C-47DD-A09C-98E6ED022271}" name="Scaled" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{AE56846B-4803-4FB0-A891-334F004BA048}" name="Score2" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{472F7BBE-3EAD-4345-ADC0-0B7428A3A6D5}" name="ML Models" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A44ECB61-8C1D-4A79-A79C-2BA5819B95CF}" name="Score" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6B15EFDA-776C-47DD-A09C-98E6ED022271}" name="Scaled" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AE56846B-4803-4FB0-A891-334F004BA048}" name="Score2" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E058A0A-70CF-452A-9566-05CA1491DB0C}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868AC057-450D-4201-BC24-B3E3287EE871}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
